--- a/database/industries/biscuit/ghesalem/product/quarterly.xlsx
+++ b/database/industries/biscuit/ghesalem/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghesalem\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\biscuit\ghesalem\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71957707-A2C4-4B25-9F5E-6EFFF45E956C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3227FAC7-79AB-41D3-9CD1-D6C6D9BBA1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7176" yWindow="5148" windowWidth="13800" windowHeight="7092" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="39">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1399/09</t>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>کیک</t>
@@ -596,12 +596,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -616,7 +616,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -633,7 +633,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -650,7 +650,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -665,7 +665,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -682,7 +682,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -699,7 +699,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -714,7 +714,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -751,7 +751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -766,7 +766,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -775,37 +775,37 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>2753</v>
+        <v>2749</v>
       </c>
       <c r="F10" s="9">
-        <v>2749</v>
+        <v>2813</v>
       </c>
       <c r="G10" s="9">
-        <v>2813</v>
+        <v>2409</v>
       </c>
       <c r="H10" s="9">
-        <v>2409</v>
+        <v>2919</v>
       </c>
       <c r="I10" s="9">
-        <v>2919</v>
+        <v>3067</v>
       </c>
       <c r="J10" s="9">
-        <v>3067</v>
+        <v>3094</v>
       </c>
       <c r="K10" s="9">
-        <v>3094</v>
+        <v>2599</v>
       </c>
       <c r="L10" s="9">
-        <v>2599</v>
+        <v>3271</v>
       </c>
       <c r="M10" s="9">
-        <v>3271</v>
+        <v>3237</v>
       </c>
       <c r="N10" s="9">
-        <v>3237</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3261</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
@@ -814,17 +814,17 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>2094</v>
+        <v>1774</v>
       </c>
       <c r="F11" s="11">
-        <v>1774</v>
+        <v>3068</v>
       </c>
       <c r="G11" s="11">
-        <v>3068</v>
-      </c>
-      <c r="H11" s="11">
         <v>1919</v>
       </c>
+      <c r="H11" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I11" s="11" t="s">
         <v>18</v>
       </c>
@@ -844,7 +844,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
@@ -853,37 +853,37 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F12" s="9">
-        <v>8</v>
+        <v>335</v>
       </c>
       <c r="G12" s="9">
-        <v>335</v>
+        <v>244</v>
       </c>
       <c r="H12" s="9">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="I12" s="9">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="J12" s="9">
-        <v>148</v>
+        <v>212</v>
       </c>
       <c r="K12" s="9">
-        <v>212</v>
+        <v>367</v>
       </c>
       <c r="L12" s="9">
-        <v>367</v>
+        <v>162</v>
       </c>
       <c r="M12" s="9">
-        <v>162</v>
+        <v>307</v>
       </c>
       <c r="N12" s="9">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -892,37 +892,37 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>5663</v>
+        <v>3615</v>
       </c>
       <c r="F13" s="11">
-        <v>3615</v>
+        <v>5018</v>
       </c>
       <c r="G13" s="11">
-        <v>5018</v>
+        <v>4227</v>
       </c>
       <c r="H13" s="11">
-        <v>4227</v>
+        <v>4917</v>
       </c>
       <c r="I13" s="11">
-        <v>4917</v>
+        <v>5226</v>
       </c>
       <c r="J13" s="11">
-        <v>5226</v>
+        <v>5613</v>
       </c>
       <c r="K13" s="11">
-        <v>5613</v>
+        <v>3779</v>
       </c>
       <c r="L13" s="11">
-        <v>3779</v>
+        <v>5058</v>
       </c>
       <c r="M13" s="11">
-        <v>5058</v>
+        <v>4783</v>
       </c>
       <c r="N13" s="11">
-        <v>4783</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4713</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
@@ -939,29 +939,29 @@
       <c r="G14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>18</v>
+      <c r="H14" s="9">
+        <v>825</v>
       </c>
       <c r="I14" s="9">
-        <v>825</v>
+        <v>886</v>
       </c>
       <c r="J14" s="9">
-        <v>886</v>
+        <v>515</v>
       </c>
       <c r="K14" s="9">
-        <v>515</v>
+        <v>301</v>
       </c>
       <c r="L14" s="9">
-        <v>301</v>
+        <v>543</v>
       </c>
       <c r="M14" s="9">
-        <v>543</v>
+        <v>573</v>
       </c>
       <c r="N14" s="9">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -976,14 +976,14 @@
       <c r="G15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="11">
-        <v>0</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>18</v>
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0</v>
       </c>
       <c r="K15" s="11">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
@@ -1007,37 +1007,37 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F16" s="9">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G16" s="9">
+        <v>8</v>
+      </c>
+      <c r="H16" s="9">
         <v>19</v>
       </c>
-      <c r="H16" s="9">
-        <v>8</v>
-      </c>
       <c r="I16" s="9">
+        <v>23</v>
+      </c>
+      <c r="J16" s="9">
+        <v>17</v>
+      </c>
+      <c r="K16" s="9">
+        <v>18</v>
+      </c>
+      <c r="L16" s="9">
+        <v>20</v>
+      </c>
+      <c r="M16" s="9">
+        <v>18</v>
+      </c>
+      <c r="N16" s="9">
         <v>19</v>
       </c>
-      <c r="J16" s="9">
-        <v>23</v>
-      </c>
-      <c r="K16" s="9">
-        <v>17</v>
-      </c>
-      <c r="L16" s="9">
-        <v>18</v>
-      </c>
-      <c r="M16" s="9">
-        <v>20</v>
-      </c>
-      <c r="N16" s="9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1054,29 +1054,29 @@
       <c r="G17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>18</v>
+      <c r="H17" s="11">
+        <v>2906</v>
       </c>
       <c r="I17" s="11">
-        <v>2906</v>
+        <v>2095</v>
       </c>
       <c r="J17" s="11">
-        <v>2095</v>
+        <v>1375</v>
       </c>
       <c r="K17" s="11">
-        <v>1375</v>
+        <v>1409</v>
       </c>
       <c r="L17" s="11">
-        <v>1409</v>
+        <v>1509</v>
       </c>
       <c r="M17" s="11">
-        <v>1509</v>
+        <v>1746</v>
       </c>
       <c r="N17" s="11">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>25</v>
       </c>
@@ -1093,29 +1093,29 @@
       <c r="G18" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>18</v>
+      <c r="H18" s="9">
+        <v>0</v>
       </c>
       <c r="I18" s="9">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="J18" s="9">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K18" s="9">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="L18" s="9">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="M18" s="9">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="N18" s="9">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1132,66 +1132,66 @@
       <c r="G19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>18</v>
+      <c r="H19" s="11">
+        <v>514</v>
       </c>
       <c r="I19" s="11">
-        <v>514</v>
+        <v>297</v>
       </c>
       <c r="J19" s="11">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="K19" s="11">
-        <v>284</v>
+        <v>354</v>
       </c>
       <c r="L19" s="11">
-        <v>354</v>
+        <v>429</v>
       </c>
       <c r="M19" s="11">
-        <v>429</v>
+        <v>527</v>
       </c>
       <c r="N19" s="11">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>10526</v>
+        <v>8168</v>
       </c>
       <c r="F20" s="13">
-        <v>8168</v>
+        <v>11253</v>
       </c>
       <c r="G20" s="13">
-        <v>11253</v>
+        <v>8807</v>
       </c>
       <c r="H20" s="13">
-        <v>8807</v>
+        <v>12324</v>
       </c>
       <c r="I20" s="13">
-        <v>12324</v>
+        <v>11794</v>
       </c>
       <c r="J20" s="13">
-        <v>11794</v>
+        <v>11168</v>
       </c>
       <c r="K20" s="13">
-        <v>11168</v>
+        <v>8940</v>
       </c>
       <c r="L20" s="13">
-        <v>8940</v>
+        <v>11080</v>
       </c>
       <c r="M20" s="13">
-        <v>11080</v>
+        <v>11377</v>
       </c>
       <c r="N20" s="13">
-        <v>11377</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>10309</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1206,7 +1206,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1221,7 +1221,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1236,7 +1236,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>28</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1288,7 +1288,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>15</v>
       </c>
@@ -1297,37 +1297,37 @@
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
-        <v>2747</v>
+        <v>2740</v>
       </c>
       <c r="F26" s="9">
-        <v>2740</v>
+        <v>2810</v>
       </c>
       <c r="G26" s="9">
-        <v>2810</v>
+        <v>2433</v>
       </c>
       <c r="H26" s="9">
-        <v>2433</v>
+        <v>2885</v>
       </c>
       <c r="I26" s="9">
-        <v>2885</v>
-      </c>
-      <c r="J26" s="9">
         <v>3063</v>
       </c>
-      <c r="K26" s="9" t="s">
-        <v>18</v>
+      <c r="J26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="9">
+        <v>2599</v>
       </c>
       <c r="L26" s="9">
-        <v>2599</v>
+        <v>3279</v>
       </c>
       <c r="M26" s="9">
-        <v>3279</v>
+        <v>3233</v>
       </c>
       <c r="N26" s="9">
-        <v>3233</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>17</v>
       </c>
@@ -1336,17 +1336,17 @@
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>2122</v>
+        <v>1773</v>
       </c>
       <c r="F27" s="11">
-        <v>1773</v>
+        <v>2994</v>
       </c>
       <c r="G27" s="11">
-        <v>2994</v>
-      </c>
-      <c r="H27" s="11">
         <v>1919</v>
       </c>
+      <c r="H27" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I27" s="11" t="s">
         <v>18</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>19</v>
       </c>
@@ -1375,37 +1375,37 @@
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="9">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="G28" s="9">
-        <v>320</v>
+        <v>253</v>
       </c>
       <c r="H28" s="9">
-        <v>253</v>
+        <v>202</v>
       </c>
       <c r="I28" s="9">
-        <v>202</v>
-      </c>
-      <c r="J28" s="9">
         <v>182</v>
       </c>
-      <c r="K28" s="9" t="s">
-        <v>18</v>
+      <c r="J28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="9">
+        <v>296</v>
       </c>
       <c r="L28" s="9">
-        <v>296</v>
+        <v>192</v>
       </c>
       <c r="M28" s="9">
-        <v>192</v>
+        <v>301</v>
       </c>
       <c r="N28" s="9">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>20</v>
       </c>
@@ -1414,37 +1414,37 @@
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11">
-        <v>5746</v>
+        <v>3754</v>
       </c>
       <c r="F29" s="11">
-        <v>3754</v>
+        <v>4867</v>
       </c>
       <c r="G29" s="11">
-        <v>4867</v>
+        <v>4214</v>
       </c>
       <c r="H29" s="11">
-        <v>4214</v>
+        <v>5071</v>
       </c>
       <c r="I29" s="11">
-        <v>5071</v>
-      </c>
-      <c r="J29" s="11">
         <v>4982</v>
       </c>
-      <c r="K29" s="11" t="s">
-        <v>18</v>
+      <c r="J29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="11">
+        <v>3892</v>
       </c>
       <c r="L29" s="11">
-        <v>3892</v>
+        <v>4661</v>
       </c>
       <c r="M29" s="11">
-        <v>4661</v>
+        <v>4939</v>
       </c>
       <c r="N29" s="11">
-        <v>4939</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4446</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>29</v>
       </c>
@@ -1458,8 +1458,8 @@
       <c r="F30" s="9">
         <v>0</v>
       </c>
-      <c r="G30" s="9">
-        <v>0</v>
+      <c r="G30" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>18</v>
@@ -1483,7 +1483,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>21</v>
       </c>
@@ -1500,29 +1500,29 @@
       <c r="G31" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H31" s="11" t="s">
-        <v>18</v>
+      <c r="H31" s="11">
+        <v>859</v>
       </c>
       <c r="I31" s="11">
-        <v>859</v>
-      </c>
-      <c r="J31" s="11">
         <v>750</v>
       </c>
-      <c r="K31" s="11" t="s">
-        <v>18</v>
+      <c r="J31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="11">
+        <v>365</v>
       </c>
       <c r="L31" s="11">
-        <v>365</v>
+        <v>516</v>
       </c>
       <c r="M31" s="11">
-        <v>516</v>
+        <v>568</v>
       </c>
       <c r="N31" s="11">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>22</v>
       </c>
@@ -1534,20 +1534,20 @@
       <c r="F32" s="9">
         <v>0</v>
       </c>
-      <c r="G32" s="9">
-        <v>0</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="9">
-        <v>0</v>
+      <c r="G32" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="9">
+        <v>0</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="J32" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K32" s="9" t="s">
-        <v>18</v>
+      <c r="K32" s="9">
+        <v>0</v>
       </c>
       <c r="L32" s="9">
         <v>0</v>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>23</v>
       </c>
@@ -1568,37 +1568,37 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F33" s="11">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G33" s="11">
+        <v>13</v>
+      </c>
+      <c r="H33" s="11">
+        <v>15</v>
+      </c>
+      <c r="I33" s="11">
+        <v>26</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="11">
         <v>16</v>
       </c>
-      <c r="H33" s="11">
-        <v>13</v>
-      </c>
-      <c r="I33" s="11">
-        <v>15</v>
-      </c>
-      <c r="J33" s="11">
-        <v>26</v>
-      </c>
-      <c r="K33" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="L33" s="11">
+        <v>17</v>
+      </c>
+      <c r="M33" s="11">
+        <v>20</v>
+      </c>
+      <c r="N33" s="11">
         <v>16</v>
       </c>
-      <c r="M33" s="11">
-        <v>17</v>
-      </c>
-      <c r="N33" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>24</v>
       </c>
@@ -1615,29 +1615,29 @@
       <c r="G34" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="9" t="s">
-        <v>18</v>
+      <c r="H34" s="9">
+        <v>2909</v>
       </c>
       <c r="I34" s="9">
-        <v>2909</v>
-      </c>
-      <c r="J34" s="9">
         <v>2018</v>
       </c>
-      <c r="K34" s="9" t="s">
-        <v>18</v>
+      <c r="J34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="9">
+        <v>1219</v>
       </c>
       <c r="L34" s="9">
-        <v>1219</v>
+        <v>1618</v>
       </c>
       <c r="M34" s="9">
-        <v>1618</v>
+        <v>1668</v>
       </c>
       <c r="N34" s="9">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>25</v>
       </c>
@@ -1654,29 +1654,29 @@
       <c r="G35" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="11" t="s">
-        <v>18</v>
+      <c r="H35" s="11">
+        <v>10</v>
       </c>
       <c r="I35" s="11">
-        <v>10</v>
-      </c>
-      <c r="J35" s="11">
         <v>52</v>
       </c>
-      <c r="K35" s="11" t="s">
-        <v>18</v>
+      <c r="J35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="11">
+        <v>95</v>
       </c>
       <c r="L35" s="11">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M35" s="11">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="N35" s="11">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>26</v>
       </c>
@@ -1693,66 +1693,66 @@
       <c r="G36" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H36" s="9" t="s">
-        <v>18</v>
+      <c r="H36" s="9">
+        <v>512</v>
       </c>
       <c r="I36" s="9">
-        <v>512</v>
-      </c>
-      <c r="J36" s="9">
         <v>302</v>
       </c>
-      <c r="K36" s="9" t="s">
-        <v>18</v>
+      <c r="J36" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="9">
+        <v>327</v>
       </c>
       <c r="L36" s="9">
-        <v>327</v>
+        <v>451</v>
       </c>
       <c r="M36" s="9">
-        <v>451</v>
+        <v>523</v>
       </c>
       <c r="N36" s="9">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15">
-        <v>10636</v>
+        <v>8287</v>
       </c>
       <c r="F37" s="15">
-        <v>8287</v>
+        <v>11007</v>
       </c>
       <c r="G37" s="15">
-        <v>11007</v>
+        <v>8832</v>
       </c>
       <c r="H37" s="15">
-        <v>8832</v>
+        <v>12463</v>
       </c>
       <c r="I37" s="15">
-        <v>12463</v>
+        <v>11375</v>
       </c>
       <c r="J37" s="15">
-        <v>11375</v>
+        <v>0</v>
       </c>
       <c r="K37" s="15">
-        <v>0</v>
+        <v>8809</v>
       </c>
       <c r="L37" s="15">
-        <v>8809</v>
+        <v>10837</v>
       </c>
       <c r="M37" s="15">
-        <v>10837</v>
+        <v>11414</v>
       </c>
       <c r="N37" s="15">
-        <v>11414</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>10041</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1767,7 +1767,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1782,7 +1782,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1797,7 +1797,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>31</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1849,7 +1849,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>15</v>
       </c>
@@ -1858,37 +1858,37 @@
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
-        <v>447777</v>
+        <v>557307</v>
       </c>
       <c r="F43" s="9">
-        <v>557307</v>
+        <v>586362</v>
       </c>
       <c r="G43" s="9">
-        <v>586362</v>
+        <v>597407</v>
       </c>
       <c r="H43" s="9">
-        <v>597407</v>
+        <v>750421</v>
       </c>
       <c r="I43" s="9">
-        <v>750421</v>
-      </c>
-      <c r="J43" s="9">
         <v>890434</v>
       </c>
-      <c r="K43" s="9" t="s">
-        <v>18</v>
+      <c r="J43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="9">
+        <v>1173609</v>
       </c>
       <c r="L43" s="9">
-        <v>1173609</v>
+        <v>1742616</v>
       </c>
       <c r="M43" s="9">
-        <v>1742616</v>
+        <v>1828217</v>
       </c>
       <c r="N43" s="9">
-        <v>1828217</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1866027</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>17</v>
       </c>
@@ -1897,17 +1897,17 @@
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
-        <v>277694</v>
+        <v>266678</v>
       </c>
       <c r="F44" s="11">
-        <v>266678</v>
+        <v>488854</v>
       </c>
       <c r="G44" s="11">
-        <v>488854</v>
-      </c>
-      <c r="H44" s="11">
         <v>329882</v>
       </c>
+      <c r="H44" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I44" s="11" t="s">
         <v>18</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>19</v>
       </c>
@@ -1936,37 +1936,37 @@
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="F45" s="9">
-        <v>139</v>
+        <v>59040</v>
       </c>
       <c r="G45" s="9">
-        <v>59040</v>
+        <v>55905</v>
       </c>
       <c r="H45" s="9">
-        <v>55905</v>
+        <v>48030</v>
       </c>
       <c r="I45" s="9">
-        <v>48030</v>
-      </c>
-      <c r="J45" s="9">
         <v>49321</v>
       </c>
-      <c r="K45" s="9" t="s">
-        <v>18</v>
+      <c r="J45" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" s="9">
+        <v>156629</v>
       </c>
       <c r="L45" s="9">
-        <v>156629</v>
+        <v>117143</v>
       </c>
       <c r="M45" s="9">
-        <v>117143</v>
+        <v>179178</v>
       </c>
       <c r="N45" s="9">
-        <v>179178</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>123585</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>20</v>
       </c>
@@ -1975,37 +1975,37 @@
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11">
-        <v>103427</v>
+        <v>67569</v>
       </c>
       <c r="F46" s="11">
-        <v>67569</v>
+        <v>87617</v>
       </c>
       <c r="G46" s="11">
-        <v>87617</v>
+        <v>117995</v>
       </c>
       <c r="H46" s="11">
-        <v>117995</v>
+        <v>141992</v>
       </c>
       <c r="I46" s="11">
-        <v>141992</v>
-      </c>
-      <c r="J46" s="11">
         <v>139488</v>
       </c>
-      <c r="K46" s="11" t="s">
-        <v>18</v>
+      <c r="J46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="11">
+        <v>159572</v>
       </c>
       <c r="L46" s="11">
-        <v>159572</v>
+        <v>191130</v>
       </c>
       <c r="M46" s="11">
-        <v>191130</v>
+        <v>202520</v>
       </c>
       <c r="N46" s="11">
-        <v>202520</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+        <v>182262</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>29</v>
       </c>
@@ -2019,8 +2019,8 @@
       <c r="F47" s="9">
         <v>0</v>
       </c>
-      <c r="G47" s="9">
-        <v>0</v>
+      <c r="G47" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="H47" s="9" t="s">
         <v>18</v>
@@ -2044,7 +2044,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>21</v>
       </c>
@@ -2061,29 +2061,29 @@
       <c r="G48" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H48" s="11" t="s">
-        <v>18</v>
+      <c r="H48" s="11">
+        <v>138762</v>
       </c>
       <c r="I48" s="11">
-        <v>138762</v>
-      </c>
-      <c r="J48" s="11">
         <v>138254</v>
       </c>
-      <c r="K48" s="11" t="s">
-        <v>18</v>
+      <c r="J48" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" s="11">
+        <v>120141</v>
       </c>
       <c r="L48" s="11">
-        <v>120141</v>
+        <v>203130</v>
       </c>
       <c r="M48" s="11">
-        <v>203130</v>
+        <v>252653</v>
       </c>
       <c r="N48" s="11">
-        <v>252653</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>215441</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>22</v>
       </c>
@@ -2097,20 +2097,20 @@
       <c r="F49" s="9">
         <v>0</v>
       </c>
-      <c r="G49" s="9">
-        <v>0</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I49" s="9">
-        <v>0</v>
+      <c r="G49" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="9">
+        <v>0</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="J49" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K49" s="9" t="s">
-        <v>18</v>
+      <c r="K49" s="9">
+        <v>0</v>
       </c>
       <c r="L49" s="9">
         <v>0</v>
@@ -2122,7 +2122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>23</v>
       </c>
@@ -2131,37 +2131,37 @@
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
-        <v>4727</v>
+        <v>6549</v>
       </c>
       <c r="F50" s="11">
-        <v>6549</v>
+        <v>5652</v>
       </c>
       <c r="G50" s="11">
-        <v>5652</v>
+        <v>5139</v>
       </c>
       <c r="H50" s="11">
-        <v>5139</v>
+        <v>7150</v>
       </c>
       <c r="I50" s="11">
-        <v>7150</v>
-      </c>
-      <c r="J50" s="11">
         <v>11918</v>
       </c>
-      <c r="K50" s="11" t="s">
-        <v>18</v>
+      <c r="J50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" s="11">
+        <v>11811</v>
       </c>
       <c r="L50" s="11">
-        <v>11811</v>
+        <v>13944</v>
       </c>
       <c r="M50" s="11">
-        <v>13944</v>
+        <v>17166</v>
       </c>
       <c r="N50" s="11">
-        <v>17166</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13864</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>24</v>
       </c>
@@ -2178,29 +2178,29 @@
       <c r="G51" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H51" s="9" t="s">
-        <v>18</v>
+      <c r="H51" s="9">
+        <v>474862</v>
       </c>
       <c r="I51" s="9">
-        <v>474862</v>
-      </c>
-      <c r="J51" s="9">
         <v>407691</v>
       </c>
-      <c r="K51" s="9" t="s">
-        <v>18</v>
+      <c r="J51" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="9">
+        <v>470195</v>
       </c>
       <c r="L51" s="9">
-        <v>470195</v>
+        <v>749402</v>
       </c>
       <c r="M51" s="9">
-        <v>749402</v>
+        <v>869811</v>
       </c>
       <c r="N51" s="9">
-        <v>869811</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+        <v>558516</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>25</v>
       </c>
@@ -2217,29 +2217,29 @@
       <c r="G52" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H52" s="11" t="s">
-        <v>18</v>
+      <c r="H52" s="11">
+        <v>1457</v>
       </c>
       <c r="I52" s="11">
-        <v>1457</v>
-      </c>
-      <c r="J52" s="11">
         <v>10003</v>
       </c>
-      <c r="K52" s="11" t="s">
-        <v>18</v>
+      <c r="J52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K52" s="11">
+        <v>38623</v>
       </c>
       <c r="L52" s="11">
-        <v>38623</v>
+        <v>41881</v>
       </c>
       <c r="M52" s="11">
-        <v>41881</v>
+        <v>66672</v>
       </c>
       <c r="N52" s="11">
-        <v>66672</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+        <v>58449</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>26</v>
       </c>
@@ -2256,66 +2256,66 @@
       <c r="G53" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H53" s="9" t="s">
-        <v>18</v>
+      <c r="H53" s="9">
+        <v>173966</v>
       </c>
       <c r="I53" s="9">
-        <v>173966</v>
-      </c>
-      <c r="J53" s="9">
         <v>123630</v>
       </c>
-      <c r="K53" s="9" t="s">
-        <v>18</v>
+      <c r="J53" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" s="9">
+        <v>190150</v>
       </c>
       <c r="L53" s="9">
-        <v>190150</v>
+        <v>295543</v>
       </c>
       <c r="M53" s="9">
-        <v>295543</v>
+        <v>355778</v>
       </c>
       <c r="N53" s="9">
-        <v>355778</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+        <v>347981</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15">
-        <v>833625</v>
+        <v>898242</v>
       </c>
       <c r="F54" s="15">
-        <v>898242</v>
+        <v>1227525</v>
       </c>
       <c r="G54" s="15">
-        <v>1227525</v>
+        <v>1106328</v>
       </c>
       <c r="H54" s="15">
-        <v>1106328</v>
+        <v>1736640</v>
       </c>
       <c r="I54" s="15">
-        <v>1736640</v>
+        <v>1770739</v>
       </c>
       <c r="J54" s="15">
-        <v>1770739</v>
+        <v>0</v>
       </c>
       <c r="K54" s="15">
-        <v>0</v>
+        <v>2320730</v>
       </c>
       <c r="L54" s="15">
-        <v>2320730</v>
+        <v>3354789</v>
       </c>
       <c r="M54" s="15">
-        <v>3354789</v>
+        <v>3771995</v>
       </c>
       <c r="N54" s="15">
-        <v>3771995</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3366125</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2330,7 +2330,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2345,7 +2345,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2360,7 +2360,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>33</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2412,7 +2412,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>15</v>
       </c>
@@ -2421,37 +2421,37 @@
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9">
-        <v>163005825</v>
+        <v>203396715</v>
       </c>
       <c r="F60" s="9">
-        <v>203396715</v>
+        <v>208669751</v>
       </c>
       <c r="G60" s="9">
-        <v>208669751</v>
+        <v>245543362</v>
       </c>
       <c r="H60" s="9">
-        <v>245543362</v>
+        <v>260111265</v>
       </c>
       <c r="I60" s="9">
-        <v>260111265</v>
+        <v>290706497</v>
       </c>
       <c r="J60" s="9">
-        <v>290706497</v>
+        <v>299241100</v>
       </c>
       <c r="K60" s="9">
-        <v>299241100</v>
+        <v>451561755</v>
       </c>
       <c r="L60" s="9">
-        <v>451561755</v>
+        <v>531447393</v>
       </c>
       <c r="M60" s="9">
-        <v>531447393</v>
+        <v>565486236</v>
       </c>
       <c r="N60" s="9">
-        <v>565486236</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+        <v>576112072</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>17</v>
       </c>
@@ -2460,17 +2460,17 @@
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
-        <v>130864279</v>
+        <v>150410604</v>
       </c>
       <c r="F61" s="11">
-        <v>150410604</v>
+        <v>163277889</v>
       </c>
       <c r="G61" s="11">
-        <v>163277889</v>
-      </c>
-      <c r="H61" s="11">
         <v>171903075</v>
       </c>
+      <c r="H61" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I61" s="11" t="s">
         <v>18</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>19</v>
       </c>
@@ -2498,38 +2498,38 @@
         <v>34</v>
       </c>
       <c r="D62" s="9"/>
-      <c r="E62" s="9" t="s">
-        <v>18</v>
+      <c r="E62" s="9">
+        <v>139000000</v>
       </c>
       <c r="F62" s="9">
-        <v>139000000</v>
+        <v>184500000</v>
       </c>
       <c r="G62" s="9">
-        <v>184500000</v>
+        <v>220968379</v>
       </c>
       <c r="H62" s="9">
-        <v>220968379</v>
+        <v>237772277</v>
       </c>
       <c r="I62" s="9">
-        <v>237772277</v>
+        <v>270994505</v>
       </c>
       <c r="J62" s="9">
-        <v>270994505</v>
+        <v>277109453</v>
       </c>
       <c r="K62" s="9">
-        <v>277109453</v>
+        <v>529152027</v>
       </c>
       <c r="L62" s="9">
-        <v>529152027</v>
+        <v>610119792</v>
       </c>
       <c r="M62" s="9">
-        <v>610119792</v>
+        <v>595275748</v>
       </c>
       <c r="N62" s="9">
-        <v>595275748</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+        <v>577500000</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>20</v>
       </c>
@@ -2538,37 +2538,37 @@
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
-        <v>17999826</v>
+        <v>17999201</v>
       </c>
       <c r="F63" s="11">
-        <v>17999201</v>
+        <v>18002260</v>
       </c>
       <c r="G63" s="11">
-        <v>18002260</v>
+        <v>28000712</v>
       </c>
       <c r="H63" s="11">
-        <v>28000712</v>
+        <v>28000789</v>
       </c>
       <c r="I63" s="11">
-        <v>28000789</v>
+        <v>27998394</v>
       </c>
       <c r="J63" s="11">
-        <v>27998394</v>
+        <v>28000356</v>
       </c>
       <c r="K63" s="11">
-        <v>28000356</v>
+        <v>41000000</v>
       </c>
       <c r="L63" s="11">
-        <v>41000000</v>
+        <v>41006222</v>
       </c>
       <c r="M63" s="11">
-        <v>41006222</v>
+        <v>41004252</v>
       </c>
       <c r="N63" s="11">
-        <v>41004252</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+        <v>40994602</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>29</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>21</v>
       </c>
@@ -2624,29 +2624,29 @@
       <c r="G65" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H65" s="11" t="s">
-        <v>18</v>
+      <c r="H65" s="11">
+        <v>161538999</v>
       </c>
       <c r="I65" s="11">
-        <v>161538999</v>
+        <v>184338667</v>
       </c>
       <c r="J65" s="11">
-        <v>184338667</v>
+        <v>185048465</v>
       </c>
       <c r="K65" s="11">
-        <v>185048465</v>
+        <v>329153425</v>
       </c>
       <c r="L65" s="11">
-        <v>329153425</v>
+        <v>393662791</v>
       </c>
       <c r="M65" s="11">
-        <v>393662791</v>
+        <v>444811620</v>
       </c>
       <c r="N65" s="11">
-        <v>444811620</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>470395197</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>22</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>23</v>
       </c>
@@ -2694,37 +2694,37 @@
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11">
-        <v>225095238</v>
+        <v>344684211</v>
       </c>
       <c r="F67" s="11">
-        <v>344684211</v>
+        <v>353250000</v>
       </c>
       <c r="G67" s="11">
-        <v>353250000</v>
+        <v>395307692</v>
       </c>
       <c r="H67" s="11">
-        <v>395307692</v>
+        <v>476666667</v>
       </c>
       <c r="I67" s="11">
-        <v>476666667</v>
+        <v>458384615</v>
       </c>
       <c r="J67" s="11">
-        <v>458384615</v>
+        <v>543785714</v>
       </c>
       <c r="K67" s="11">
-        <v>543785714</v>
+        <v>738187500</v>
       </c>
       <c r="L67" s="11">
-        <v>738187500</v>
+        <v>820235294</v>
       </c>
       <c r="M67" s="11">
-        <v>820235294</v>
+        <v>858300000</v>
       </c>
       <c r="N67" s="11">
-        <v>858300000</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+        <v>866500000</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>24</v>
       </c>
@@ -2741,29 +2741,29 @@
       <c r="G68" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H68" s="9" t="s">
-        <v>18</v>
+      <c r="H68" s="9">
+        <v>163238914</v>
       </c>
       <c r="I68" s="9">
-        <v>163238914</v>
+        <v>202027255</v>
       </c>
       <c r="J68" s="9">
-        <v>202027255</v>
+        <v>202131397</v>
       </c>
       <c r="K68" s="9">
-        <v>202131397</v>
+        <v>385721903</v>
       </c>
       <c r="L68" s="9">
-        <v>385721903</v>
+        <v>463165637</v>
       </c>
       <c r="M68" s="9">
-        <v>463165637</v>
+        <v>521469424</v>
       </c>
       <c r="N68" s="9">
-        <v>521469424</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+        <v>546493151</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>25</v>
       </c>
@@ -2780,29 +2780,29 @@
       <c r="G69" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H69" s="11" t="s">
-        <v>18</v>
+      <c r="H69" s="11">
+        <v>145700000</v>
       </c>
       <c r="I69" s="11">
-        <v>145700000</v>
+        <v>192365385</v>
       </c>
       <c r="J69" s="11">
-        <v>192365385</v>
+        <v>196649123</v>
       </c>
       <c r="K69" s="11">
-        <v>196649123</v>
+        <v>406557895</v>
       </c>
       <c r="L69" s="11">
-        <v>406557895</v>
+        <v>406611650</v>
       </c>
       <c r="M69" s="11">
-        <v>406611650</v>
+        <v>411555556</v>
       </c>
       <c r="N69" s="11">
-        <v>411555556</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+        <v>411612676</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>26</v>
       </c>
@@ -2819,29 +2819,29 @@
       <c r="G70" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H70" s="9" t="s">
-        <v>18</v>
+      <c r="H70" s="9">
+        <v>339777344</v>
       </c>
       <c r="I70" s="9">
-        <v>339777344</v>
+        <v>409370861</v>
       </c>
       <c r="J70" s="9">
-        <v>409370861</v>
+        <v>399661871</v>
       </c>
       <c r="K70" s="9">
-        <v>399661871</v>
+        <v>581498471</v>
       </c>
       <c r="L70" s="9">
-        <v>581498471</v>
+        <v>655305987</v>
       </c>
       <c r="M70" s="9">
-        <v>655305987</v>
+        <v>680263862</v>
       </c>
       <c r="N70" s="9">
-        <v>680263862</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+        <v>690438492</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2856,7 +2856,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2871,7 +2871,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2886,7 +2886,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B74" s="7" t="s">
         <v>37</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2938,7 +2938,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>15</v>
       </c>
@@ -2947,37 +2947,37 @@
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9">
-        <v>-350290</v>
+        <v>-426630</v>
       </c>
       <c r="F76" s="9">
-        <v>-426630</v>
+        <v>-452719</v>
       </c>
       <c r="G76" s="9">
-        <v>-452719</v>
+        <v>-438990</v>
       </c>
       <c r="H76" s="9">
-        <v>-438990</v>
+        <v>-566223</v>
       </c>
       <c r="I76" s="9">
-        <v>-566223</v>
+        <v>-704266</v>
       </c>
       <c r="J76" s="9">
-        <v>-704266</v>
+        <v>-717222</v>
       </c>
       <c r="K76" s="9">
-        <v>-717222</v>
+        <v>-793962</v>
       </c>
       <c r="L76" s="9">
-        <v>-793962</v>
+        <v>-1098921</v>
       </c>
       <c r="M76" s="9">
-        <v>-1098921</v>
+        <v>-1225033</v>
       </c>
       <c r="N76" s="9">
-        <v>-1225033</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1230815</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>17</v>
       </c>
@@ -2986,17 +2986,17 @@
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
-        <v>-219674</v>
+        <v>-220948</v>
       </c>
       <c r="F77" s="11">
-        <v>-220948</v>
+        <v>-349716</v>
       </c>
       <c r="G77" s="11">
-        <v>-349716</v>
-      </c>
-      <c r="H77" s="11">
         <v>-270417</v>
       </c>
+      <c r="H77" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I77" s="11" t="s">
         <v>18</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>19</v>
       </c>
@@ -3025,37 +3025,37 @@
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9">
-        <v>-504</v>
+        <v>-546</v>
       </c>
       <c r="F78" s="9">
-        <v>-546</v>
+        <v>-46996</v>
       </c>
       <c r="G78" s="9">
-        <v>-46996</v>
+        <v>-45886</v>
       </c>
       <c r="H78" s="9">
-        <v>-45886</v>
+        <v>-42208</v>
       </c>
       <c r="I78" s="9">
-        <v>-42208</v>
+        <v>-46104</v>
       </c>
       <c r="J78" s="9">
-        <v>-46104</v>
+        <v>-42761</v>
       </c>
       <c r="K78" s="9">
-        <v>-42761</v>
+        <v>-100063</v>
       </c>
       <c r="L78" s="9">
-        <v>-100063</v>
+        <v>-53723</v>
       </c>
       <c r="M78" s="9">
-        <v>-53723</v>
+        <v>-106479</v>
       </c>
       <c r="N78" s="9">
-        <v>-106479</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-106148</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>20</v>
       </c>
@@ -3064,37 +3064,37 @@
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
-        <v>-79018</v>
+        <v>-65364</v>
       </c>
       <c r="F79" s="11">
-        <v>-65364</v>
+        <v>-72670</v>
       </c>
       <c r="G79" s="11">
-        <v>-72670</v>
+        <v>-82010</v>
       </c>
       <c r="H79" s="11">
-        <v>-82010</v>
+        <v>-102882</v>
       </c>
       <c r="I79" s="11">
-        <v>-102882</v>
+        <v>-114177</v>
       </c>
       <c r="J79" s="11">
-        <v>-114177</v>
+        <v>-140717</v>
       </c>
       <c r="K79" s="11">
-        <v>-140717</v>
+        <v>-148909</v>
       </c>
       <c r="L79" s="11">
-        <v>-148909</v>
+        <v>-173469</v>
       </c>
       <c r="M79" s="11">
-        <v>-173469</v>
+        <v>-173260</v>
       </c>
       <c r="N79" s="11">
-        <v>-173260</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-152082</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>29</v>
       </c>
@@ -3108,8 +3108,8 @@
       <c r="F80" s="9">
         <v>0</v>
       </c>
-      <c r="G80" s="9">
-        <v>0</v>
+      <c r="G80" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="H80" s="9" t="s">
         <v>18</v>
@@ -3133,7 +3133,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>21</v>
       </c>
@@ -3150,29 +3150,29 @@
       <c r="G81" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H81" s="11" t="s">
-        <v>18</v>
+      <c r="H81" s="11">
+        <v>-110180</v>
       </c>
       <c r="I81" s="11">
-        <v>-110180</v>
+        <v>-118507</v>
       </c>
       <c r="J81" s="11">
-        <v>-118507</v>
+        <v>-100246</v>
       </c>
       <c r="K81" s="11">
-        <v>-100246</v>
+        <v>-87393</v>
       </c>
       <c r="L81" s="11">
-        <v>-87393</v>
+        <v>-145187</v>
       </c>
       <c r="M81" s="11">
-        <v>-145187</v>
+        <v>-160829</v>
       </c>
       <c r="N81" s="11">
-        <v>-160829</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-145760</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>22</v>
       </c>
@@ -3186,17 +3186,17 @@
       <c r="F82" s="9">
         <v>0</v>
       </c>
-      <c r="G82" s="9">
-        <v>0</v>
-      </c>
-      <c r="H82" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I82" s="9">
-        <v>0</v>
-      </c>
-      <c r="J82" s="9" t="s">
-        <v>18</v>
+      <c r="G82" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H82" s="9">
+        <v>0</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J82" s="9">
+        <v>0</v>
       </c>
       <c r="K82" s="9">
         <v>0</v>
@@ -3211,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>23</v>
       </c>
@@ -3220,37 +3220,37 @@
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11">
-        <v>-3964</v>
+        <v>-3692</v>
       </c>
       <c r="F83" s="11">
-        <v>-3692</v>
+        <v>-3866</v>
       </c>
       <c r="G83" s="11">
-        <v>-3866</v>
+        <v>-3088</v>
       </c>
       <c r="H83" s="11">
-        <v>-3088</v>
+        <v>-4145</v>
       </c>
       <c r="I83" s="11">
-        <v>-4145</v>
+        <v>-7033</v>
       </c>
       <c r="J83" s="11">
-        <v>-7033</v>
+        <v>-8501</v>
       </c>
       <c r="K83" s="11">
-        <v>-8501</v>
+        <v>-7395</v>
       </c>
       <c r="L83" s="11">
-        <v>-7395</v>
+        <v>-9273</v>
       </c>
       <c r="M83" s="11">
-        <v>-9273</v>
+        <v>-12159</v>
       </c>
       <c r="N83" s="11">
-        <v>-12159</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-16595</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>24</v>
       </c>
@@ -3267,29 +3267,29 @@
       <c r="G84" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H84" s="9" t="s">
-        <v>18</v>
+      <c r="H84" s="9">
+        <v>-378514</v>
       </c>
       <c r="I84" s="9">
-        <v>-378514</v>
+        <v>-321882</v>
       </c>
       <c r="J84" s="9">
-        <v>-321882</v>
+        <v>-244550</v>
       </c>
       <c r="K84" s="9">
-        <v>-244550</v>
+        <v>-333223</v>
       </c>
       <c r="L84" s="9">
-        <v>-333223</v>
+        <v>-459339</v>
       </c>
       <c r="M84" s="9">
-        <v>-459339</v>
+        <v>-543679</v>
       </c>
       <c r="N84" s="9">
-        <v>-543679</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-295463</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>25</v>
       </c>
@@ -3306,29 +3306,29 @@
       <c r="G85" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H85" s="11" t="s">
-        <v>18</v>
+      <c r="H85" s="11">
+        <v>-1144</v>
       </c>
       <c r="I85" s="11">
-        <v>-1144</v>
+        <v>-5543</v>
       </c>
       <c r="J85" s="11">
-        <v>-5543</v>
+        <v>-12804</v>
       </c>
       <c r="K85" s="11">
-        <v>-12804</v>
+        <v>-26041</v>
       </c>
       <c r="L85" s="11">
-        <v>-26041</v>
+        <v>-32020</v>
       </c>
       <c r="M85" s="11">
-        <v>-32020</v>
+        <v>-58574</v>
       </c>
       <c r="N85" s="11">
-        <v>-58574</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-50483</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>26</v>
       </c>
@@ -3345,66 +3345,66 @@
       <c r="G86" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H86" s="9" t="s">
-        <v>18</v>
+      <c r="H86" s="9">
+        <v>-129459</v>
       </c>
       <c r="I86" s="9">
-        <v>-129459</v>
+        <v>-83125</v>
       </c>
       <c r="J86" s="9">
-        <v>-83125</v>
+        <v>-91325</v>
       </c>
       <c r="K86" s="9">
-        <v>-91325</v>
+        <v>-119978</v>
       </c>
       <c r="L86" s="9">
-        <v>-119978</v>
+        <v>-164918</v>
       </c>
       <c r="M86" s="9">
-        <v>-164918</v>
+        <v>-214792</v>
       </c>
       <c r="N86" s="9">
-        <v>-214792</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-290447</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
-        <v>-653450</v>
+        <v>-717180</v>
       </c>
       <c r="F87" s="15">
-        <v>-717180</v>
+        <v>-925967</v>
       </c>
       <c r="G87" s="15">
-        <v>-925967</v>
+        <v>-840391</v>
       </c>
       <c r="H87" s="15">
-        <v>-840391</v>
+        <v>-1334755</v>
       </c>
       <c r="I87" s="15">
-        <v>-1334755</v>
+        <v>-1400637</v>
       </c>
       <c r="J87" s="15">
-        <v>-1400637</v>
+        <v>-1358126</v>
       </c>
       <c r="K87" s="15">
-        <v>-1358126</v>
+        <v>-1616964</v>
       </c>
       <c r="L87" s="15">
-        <v>-1616964</v>
+        <v>-2136850</v>
       </c>
       <c r="M87" s="15">
-        <v>-2136850</v>
+        <v>-2494805</v>
       </c>
       <c r="N87" s="15">
-        <v>-2494805</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2287793</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3419,7 +3419,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3434,7 +3434,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3449,7 +3449,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
         <v>38</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3501,7 +3501,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>15</v>
       </c>
@@ -3510,37 +3510,37 @@
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9">
-        <v>97487</v>
+        <v>130677</v>
       </c>
       <c r="F93" s="9">
-        <v>130677</v>
+        <v>133643</v>
       </c>
       <c r="G93" s="9">
-        <v>133643</v>
+        <v>158417</v>
       </c>
       <c r="H93" s="9">
-        <v>158417</v>
+        <v>184198</v>
       </c>
       <c r="I93" s="9">
-        <v>184198</v>
+        <v>186168</v>
       </c>
       <c r="J93" s="9">
-        <v>186168</v>
+        <v>207433</v>
       </c>
       <c r="K93" s="9">
-        <v>207433</v>
+        <v>379647</v>
       </c>
       <c r="L93" s="9">
-        <v>379647</v>
+        <v>643695</v>
       </c>
       <c r="M93" s="9">
-        <v>643695</v>
+        <v>603184</v>
       </c>
       <c r="N93" s="9">
-        <v>603184</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+        <v>635212</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>17</v>
       </c>
@@ -3549,17 +3549,17 @@
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11">
-        <v>58020</v>
+        <v>45730</v>
       </c>
       <c r="F94" s="11">
-        <v>45730</v>
+        <v>139138</v>
       </c>
       <c r="G94" s="11">
-        <v>139138</v>
-      </c>
-      <c r="H94" s="11">
         <v>59465</v>
       </c>
+      <c r="H94" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I94" s="11" t="s">
         <v>18</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>19</v>
       </c>
@@ -3588,37 +3588,37 @@
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9">
-        <v>-504</v>
+        <v>-407</v>
       </c>
       <c r="F95" s="9">
-        <v>-407</v>
+        <v>12044</v>
       </c>
       <c r="G95" s="9">
-        <v>12044</v>
+        <v>10019</v>
       </c>
       <c r="H95" s="9">
-        <v>10019</v>
+        <v>5822</v>
       </c>
       <c r="I95" s="9">
-        <v>5822</v>
+        <v>3217</v>
       </c>
       <c r="J95" s="9">
-        <v>3217</v>
+        <v>12938</v>
       </c>
       <c r="K95" s="9">
-        <v>12938</v>
+        <v>56566</v>
       </c>
       <c r="L95" s="9">
-        <v>56566</v>
+        <v>63420</v>
       </c>
       <c r="M95" s="9">
-        <v>63420</v>
+        <v>72699</v>
       </c>
       <c r="N95" s="9">
-        <v>72699</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17437</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>20</v>
       </c>
@@ -3627,37 +3627,37 @@
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11">
-        <v>24409</v>
+        <v>2205</v>
       </c>
       <c r="F96" s="11">
-        <v>2205</v>
+        <v>14947</v>
       </c>
       <c r="G96" s="11">
-        <v>14947</v>
+        <v>35985</v>
       </c>
       <c r="H96" s="11">
-        <v>35985</v>
+        <v>39110</v>
       </c>
       <c r="I96" s="11">
-        <v>39110</v>
+        <v>25311</v>
       </c>
       <c r="J96" s="11">
-        <v>25311</v>
+        <v>16449</v>
       </c>
       <c r="K96" s="11">
-        <v>16449</v>
+        <v>10663</v>
       </c>
       <c r="L96" s="11">
-        <v>10663</v>
+        <v>17661</v>
       </c>
       <c r="M96" s="11">
-        <v>17661</v>
+        <v>29260</v>
       </c>
       <c r="N96" s="11">
-        <v>29260</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+        <v>30180</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>29</v>
       </c>
@@ -3671,8 +3671,8 @@
       <c r="F97" s="9">
         <v>0</v>
       </c>
-      <c r="G97" s="9">
-        <v>0</v>
+      <c r="G97" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="H97" s="9" t="s">
         <v>18</v>
@@ -3696,7 +3696,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>21</v>
       </c>
@@ -3713,29 +3713,29 @@
       <c r="G98" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H98" s="11" t="s">
-        <v>18</v>
+      <c r="H98" s="11">
+        <v>28582</v>
       </c>
       <c r="I98" s="11">
-        <v>28582</v>
+        <v>19747</v>
       </c>
       <c r="J98" s="11">
-        <v>19747</v>
+        <v>14299</v>
       </c>
       <c r="K98" s="11">
-        <v>14299</v>
+        <v>32748</v>
       </c>
       <c r="L98" s="11">
-        <v>32748</v>
+        <v>57943</v>
       </c>
       <c r="M98" s="11">
-        <v>57943</v>
+        <v>91824</v>
       </c>
       <c r="N98" s="11">
-        <v>91824</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+        <v>69681</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>22</v>
       </c>
@@ -3749,17 +3749,17 @@
       <c r="F99" s="9">
         <v>0</v>
       </c>
-      <c r="G99" s="9">
-        <v>0</v>
-      </c>
-      <c r="H99" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I99" s="9">
-        <v>0</v>
-      </c>
-      <c r="J99" s="9" t="s">
-        <v>18</v>
+      <c r="G99" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H99" s="9">
+        <v>0</v>
+      </c>
+      <c r="I99" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J99" s="9">
+        <v>0</v>
       </c>
       <c r="K99" s="9">
         <v>0</v>
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>23</v>
       </c>
@@ -3783,37 +3783,37 @@
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
-        <v>763</v>
+        <v>2857</v>
       </c>
       <c r="F100" s="11">
-        <v>2857</v>
+        <v>1786</v>
       </c>
       <c r="G100" s="11">
-        <v>1786</v>
+        <v>2051</v>
       </c>
       <c r="H100" s="11">
-        <v>2051</v>
+        <v>3005</v>
       </c>
       <c r="I100" s="11">
-        <v>3005</v>
+        <v>4885</v>
       </c>
       <c r="J100" s="11">
-        <v>4885</v>
+        <v>-888</v>
       </c>
       <c r="K100" s="11">
-        <v>-888</v>
+        <v>4416</v>
       </c>
       <c r="L100" s="11">
-        <v>4416</v>
+        <v>4671</v>
       </c>
       <c r="M100" s="11">
-        <v>4671</v>
+        <v>5007</v>
       </c>
       <c r="N100" s="11">
-        <v>5007</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2731</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>24</v>
       </c>
@@ -3830,29 +3830,29 @@
       <c r="G101" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H101" s="9" t="s">
-        <v>18</v>
+      <c r="H101" s="9">
+        <v>96348</v>
       </c>
       <c r="I101" s="9">
-        <v>96348</v>
+        <v>85809</v>
       </c>
       <c r="J101" s="9">
-        <v>85809</v>
+        <v>47732</v>
       </c>
       <c r="K101" s="9">
-        <v>47732</v>
+        <v>136972</v>
       </c>
       <c r="L101" s="9">
-        <v>136972</v>
+        <v>290063</v>
       </c>
       <c r="M101" s="9">
-        <v>290063</v>
+        <v>326132</v>
       </c>
       <c r="N101" s="9">
-        <v>326132</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>263053</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>25</v>
       </c>
@@ -3869,29 +3869,29 @@
       <c r="G102" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H102" s="11" t="s">
-        <v>18</v>
+      <c r="H102" s="11">
+        <v>313</v>
       </c>
       <c r="I102" s="11">
-        <v>313</v>
+        <v>4460</v>
       </c>
       <c r="J102" s="11">
-        <v>4460</v>
+        <v>-1595</v>
       </c>
       <c r="K102" s="11">
-        <v>-1595</v>
+        <v>12582</v>
       </c>
       <c r="L102" s="11">
-        <v>12582</v>
+        <v>9861</v>
       </c>
       <c r="M102" s="11">
-        <v>9861</v>
+        <v>8098</v>
       </c>
       <c r="N102" s="11">
-        <v>8098</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7966</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>26</v>
       </c>
@@ -3908,63 +3908,63 @@
       <c r="G103" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H103" s="9" t="s">
-        <v>18</v>
+      <c r="H103" s="9">
+        <v>44507</v>
       </c>
       <c r="I103" s="9">
-        <v>44507</v>
+        <v>40505</v>
       </c>
       <c r="J103" s="9">
-        <v>40505</v>
+        <v>19781</v>
       </c>
       <c r="K103" s="9">
-        <v>19781</v>
+        <v>70172</v>
       </c>
       <c r="L103" s="9">
-        <v>70172</v>
+        <v>130625</v>
       </c>
       <c r="M103" s="9">
-        <v>130625</v>
+        <v>140986</v>
       </c>
       <c r="N103" s="9">
-        <v>140986</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <v>57534</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C104" s="15"/>
       <c r="D104" s="15"/>
       <c r="E104" s="15">
-        <v>180175</v>
+        <v>181062</v>
       </c>
       <c r="F104" s="15">
-        <v>181062</v>
+        <v>301558</v>
       </c>
       <c r="G104" s="15">
-        <v>301558</v>
+        <v>265937</v>
       </c>
       <c r="H104" s="15">
-        <v>265937</v>
+        <v>401885</v>
       </c>
       <c r="I104" s="15">
-        <v>401885</v>
+        <v>370102</v>
       </c>
       <c r="J104" s="15">
-        <v>370102</v>
+        <v>316149</v>
       </c>
       <c r="K104" s="15">
-        <v>316149</v>
+        <v>703766</v>
       </c>
       <c r="L104" s="15">
-        <v>703766</v>
+        <v>1217939</v>
       </c>
       <c r="M104" s="15">
-        <v>1217939</v>
+        <v>1277190</v>
       </c>
       <c r="N104" s="15">
-        <v>1277190</v>
+        <v>1078332</v>
       </c>
     </row>
   </sheetData>
